--- a/电子文档设计接口说明.xlsx
+++ b/电子文档设计接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28560" windowHeight="11760"/>
+    <workbookView windowWidth="21000" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>电子文档设计接口说明</t>
   </si>
@@ -66,7 +66,7 @@
   </si>
   <si>
     <t>idpage：主键（有值时表示更新，为空表示新增）
-page_type：页面类型（最长两个字符）
+page_type：页面类型（必须）（详情在/ppage/addpAddData接口中的下拉项，1，2，3，4）
 page_title：页面标题（必须）
 page_backimg：背景图（无效）
 pagecol：备用字段，自定义存储值
@@ -86,15 +86,20 @@
     <t>跳转到文档设计界面</t>
   </si>
   <si>
+    <t>idpage：文档记录主键（必须）
+page_title：文档标题（如果编辑器里没有当前id的模板记录为必须）
+page_type：页面类型</t>
+  </si>
+  <si>
+    <t>/dpage/delPageData</t>
+  </si>
+  <si>
+    <t>删除文档设计</t>
+  </si>
+  <si>
     <t>idpage：文档记录主键（必须）</t>
   </si>
   <si>
-    <t>/dpage/delPageData</t>
-  </si>
-  <si>
-    <t>删除文档设计</t>
-  </si>
-  <si>
     <t>删除记录数量（非json）</t>
   </si>
   <si>
@@ -104,8 +109,7 @@
     <t>获取已有的文档填写记录值列表</t>
   </si>
   <si>
-    <t>查询条件
-idpage:文档主键
+    <t>idpage:文档主键
 idrecord：记录主键
 page_title：页面标题（模糊查询）</t>
   </si>
@@ -129,6 +133,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">新增或修改记录主要信息的值
 </t>
     </r>
@@ -176,11 +187,40 @@
     <t>填写或修改文档记录值（病历记录）</t>
   </si>
   <si>
-    <t>idpage：文档记录主键（必须）
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idpage：文档记录主键（必须）
 idrecord：填写记录主键（有值表示更新(即使没有记录也可以传入该值)，为空表示新增）
 url：保存成功后的回调路径（便于保存后做其他操作，
-其中包含记录主键idrecord的值）
+其中包含记录主键idrecord的值，模板主键idpage的值），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其中url中如果有多个参数需用**分隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 editor：true固定值（为空或其它值表示查看）</t>
+    </r>
   </si>
   <si>
     <t>/drecord/delrecord</t>
@@ -191,6 +231,26 @@
   <si>
     <t>idpage：文档主键（必须）
 idrecord：记录主键（必须）</t>
+  </si>
+  <si>
+    <t>/drecord/getRecordResult</t>
+  </si>
+  <si>
+    <t>获取复杂评估表的评估结果</t>
+  </si>
+  <si>
+    <t>idrecord：记录主键（必须）
+idpage：文档主键（必须）</t>
+  </si>
+  <si>
+    <t>idrecord_result: 评估结果主键 
+idpage: 模板id
+idrecord: 记录id
+record_result: 评估结果
+opt_time: 操作时间
+bak1: 备用1
+bak2: 备用2
+bak3: 备用3</t>
   </si>
 </sst>
 </file>
@@ -198,9 +258,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -219,8 +279,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,40 +363,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,63 +394,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,13 +444,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,133 +606,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +635,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,32 +663,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +687,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,133 +755,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,10 +1226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1250,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="138" customHeight="1" spans="1:4">
+    <row r="5" ht="160" customHeight="1" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1264,14 +1324,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="54" spans="1:3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1283,10 +1343,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1295,57 +1355,71 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" ht="208" customHeight="1" spans="1:4">
+    <row r="9" ht="49" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="165" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="11" ht="81" spans="1:3">
+    <row r="11" ht="94.5" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="108" spans="1:4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
